--- a/Eskiler/2023.05.17/Basic Calculations/DE_ICE_Inverter_calcs.xlsx
+++ b/Eskiler/2023.05.17/Basic Calculations/DE_ICE_Inverter_calcs.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norrga\Box Sync\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\KTH\Eskiler\2023.05.17\Basic Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_6607639244ACC38B6E812CE28E844564198D9AB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1570762-CE92-4093-811A-87B76A270008}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inverter calc 1200 V" sheetId="2" r:id="rId1"/>
     <sheet name="Inverter calc 1700 V" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Staffan Norrga</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="F17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,12 +338,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Staffan Norrga</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="F17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -613,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -979,13 +978,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,8 +1124,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1403,14 +1402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T40"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -1425,7 +1424,7 @@
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1474,7 +1473,7 @@
       <c r="P4" s="3"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>1.4166666666666667</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1579,7 +1578,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1635,7 +1634,7 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:20" ht="17.25">
+    <row r="11" spans="2:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -1665,7 +1664,7 @@
       </c>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:20" ht="17.25">
+    <row r="12" spans="2:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1691,7 +1690,7 @@
       </c>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +1719,7 @@
       </c>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="2:20" ht="17.25">
+    <row r="14" spans="2:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>1.7212334801762117</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="17.25">
+    <row r="15" spans="2:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>2.2718983710685383</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>302.64170234784234</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>44.05649727018988</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>51</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>62.305295950155774</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -1938,7 +1937,7 @@
         <v>0.51921079958463145</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -1986,7 +1985,7 @@
         <v>31.066276140468023</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>3.1066276140468023E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>50.552301170566871</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>67</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>10.552301170566871</v>
       </c>
     </row>
-    <row r="28" spans="2:16" s="2" customFormat="1">
+    <row r="28" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -2128,7 +2127,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="2:16" s="2" customFormat="1">
+    <row r="29" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>73</v>
       </c>
@@ -2162,7 +2161,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="2:16" s="2" customFormat="1">
+    <row r="30" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>75</v>
       </c>
@@ -2196,7 +2195,7 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>77</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>4522.414787385801</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>80</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>0.9954775852126142</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="2" customFormat="1">
+    <row r="33" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>82</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="2" customFormat="1">
+    <row r="34" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>85</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="2" customFormat="1">
+    <row r="35" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>88</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="2" customFormat="1">
+    <row r="37" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>91</v>
       </c>
@@ -2338,7 +2337,7 @@
       <c r="G37"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="2:8" s="2" customFormat="1">
+    <row r="38" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>92</v>
       </c>
@@ -2349,7 +2348,7 @@
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="2:8" s="2" customFormat="1">
+    <row r="39" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>93</v>
       </c>
@@ -2360,7 +2359,7 @@
       <c r="G39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="2:8" s="2" customFormat="1">
+    <row r="40" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>94</v>
       </c>
@@ -2379,14 +2378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -2401,7 +2400,7 @@
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -2436,10 +2435,7 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
-        <f>HLOOKUP($E$3,$M$3:$N$16,3,FALSE)</f>
-        <v>1700</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="H4" s="3"/>
       <c r="M4" s="3" t="s">
         <v>9</v>
@@ -2450,7 +2446,7 @@
       <c r="P4" s="3"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2476,7 +2472,7 @@
         <v>1.4166666666666667</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -2555,7 +2551,7 @@
       </c>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -2587,7 +2583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -2611,7 +2607,7 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:20" ht="17.25">
+    <row r="11" spans="2:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -2641,7 +2637,7 @@
       </c>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:20" ht="17.25">
+    <row r="12" spans="2:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -2667,7 +2663,7 @@
       </c>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -2696,7 +2692,7 @@
       </c>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="2:20" ht="17.25">
+    <row r="14" spans="2:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2731,7 +2727,7 @@
         <v>1.7212334801762117</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="17.25">
+    <row r="15" spans="2:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,7 +2750,7 @@
         <v>2.2718983710685383</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -2785,7 +2781,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -2808,7 +2804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -2835,7 +2831,7 @@
         <v>453.96255352176348</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -2862,7 +2858,7 @@
         <v>29.370998180126588</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>51</v>
       </c>
@@ -2889,7 +2885,7 @@
         <v>41.536863966770518</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -2914,7 +2910,7 @@
         <v>0.5128007897132163</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -2935,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -2962,7 +2958,7 @@
         <v>51.193848825148748</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -2989,7 +2985,7 @@
         <v>5.1193848825148748E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -3016,7 +3012,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -3043,7 +3039,7 @@
         <v>45.299518840088766</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>67</v>
       </c>
@@ -3070,7 +3066,7 @@
         <v>5.2995188400887683</v>
       </c>
     </row>
-    <row r="28" spans="2:16" s="2" customFormat="1">
+    <row r="28" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -3104,7 +3100,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="2:16" s="2" customFormat="1">
+    <row r="29" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>73</v>
       </c>
@@ -3138,7 +3134,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="2:16" s="2" customFormat="1">
+    <row r="30" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>75</v>
       </c>
@@ -3172,7 +3168,7 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>77</v>
       </c>
@@ -3199,7 +3195,7 @@
         <v>3312.19927505548</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>80</v>
       </c>
@@ -3226,7 +3222,7 @@
         <v>0.99668780072494456</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>82</v>
       </c>
@@ -3249,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>85</v>
       </c>
@@ -3276,7 +3272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>88</v>
       </c>
@@ -3303,22 +3299,22 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>94</v>
       </c>
@@ -3331,6 +3327,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="079a31d8-35ea-482a-87e4-613f6177b97d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8caa2232-9e79-466b-a67d-763ec7c9e3ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x0101005C34D0F30FA3894B96D2C6082BB46A56" ma:contentTypeVersion="11" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="f3ad0fb1efcbdc3d9b9e90a05d10b102">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8caa2232-9e79-466b-a67d-763ec7c9e3ff" xmlns:ns3="079a31d8-35ea-482a-87e4-613f6177b97d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cd968e0b3e6c0bef1eb1e7d08546e14" ns2:_="" ns3:_="">
     <xsd:import namespace="8caa2232-9e79-466b-a67d-763ec7c9e3ff"/>
@@ -3521,34 +3537,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="079a31d8-35ea-482a-87e4-613f6177b97d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8caa2232-9e79-466b-a67d-763ec7c9e3ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EA0924-B572-4600-8A21-C9D3E1E442DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC8BB11-7F50-46C2-A189-B3DA24D7B370}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB58D670-EC2E-44A3-9535-4377A7209062}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB58D670-EC2E-44A3-9535-4377A7209062}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="079a31d8-35ea-482a-87e4-613f6177b97d"/>
+    <ds:schemaRef ds:uri="8caa2232-9e79-466b-a67d-763ec7c9e3ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC8BB11-7F50-46C2-A189-B3DA24D7B370}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EA0924-B572-4600-8A21-C9D3E1E442DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8caa2232-9e79-466b-a67d-763ec7c9e3ff"/>
+    <ds:schemaRef ds:uri="079a31d8-35ea-482a-87e4-613f6177b97d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>